--- a/sql.xlsx
+++ b/sql.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="182">
   <si>
     <t>Colname</t>
   </si>
@@ -556,6 +556,15 @@
   </si>
   <si>
     <t>avg('angle(ZgravityMean)'),</t>
+  </si>
+  <si>
+    <t>Where Clause</t>
+  </si>
+  <si>
+    <t>SELECT</t>
+  </si>
+  <si>
+    <t>'tBodyAcc-std()-X' NOT NA AND</t>
   </si>
 </sst>
 </file>
@@ -604,8 +613,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -622,19 +635,23 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -967,7 +984,7 @@
   <dimension ref="A1:CP90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -979,6 +996,12 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="2" spans="1:94">
       <c r="A2" t="s">
@@ -1264,7 +1287,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B66" si="0">"'"&amp;A3&amp;"',"</f>
+        <f t="shared" ref="B3:B4" si="0">"'"&amp;A3&amp;"',"</f>
         <v>'Subjects',</v>
       </c>
       <c r="C3" t="s">
@@ -1294,6 +1317,13 @@
       <c r="C5" t="s">
         <v>93</v>
       </c>
+      <c r="D5" t="str">
+        <f>"'"&amp;A5&amp;"' NOT NA AND"</f>
+        <v>'tBodyAcc-std()-X' NOT NA AND</v>
+      </c>
+      <c r="F5" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="6" spans="1:94">
       <c r="A6" t="s">
@@ -1306,6 +1336,10 @@
       <c r="C6" t="s">
         <v>94</v>
       </c>
+      <c r="D6" t="str">
+        <f t="shared" ref="D3:D66" si="2">"'"&amp;A6&amp;"',"</f>
+        <v>'tBodyAcc-std()-Y',</v>
+      </c>
     </row>
     <row r="7" spans="1:94">
       <c r="A7" t="s">
@@ -1318,6 +1352,10 @@
       <c r="C7" t="s">
         <v>95</v>
       </c>
+      <c r="D7" t="str">
+        <f t="shared" si="2"/>
+        <v>'tBodyAcc-std()-Z',</v>
+      </c>
     </row>
     <row r="8" spans="1:94">
       <c r="A8" t="s">
@@ -1330,6 +1368,10 @@
       <c r="C8" t="s">
         <v>96</v>
       </c>
+      <c r="D8" t="str">
+        <f t="shared" si="2"/>
+        <v>'tGravityAcc-std()-X',</v>
+      </c>
     </row>
     <row r="9" spans="1:94">
       <c r="A9" t="s">
@@ -1342,6 +1384,10 @@
       <c r="C9" t="s">
         <v>97</v>
       </c>
+      <c r="D9" t="str">
+        <f t="shared" si="2"/>
+        <v>'tGravityAcc-std()-Y',</v>
+      </c>
     </row>
     <row r="10" spans="1:94">
       <c r="A10" t="s">
@@ -1354,6 +1400,10 @@
       <c r="C10" t="s">
         <v>98</v>
       </c>
+      <c r="D10" t="str">
+        <f t="shared" si="2"/>
+        <v>'tGravityAcc-std()-Z',</v>
+      </c>
     </row>
     <row r="11" spans="1:94">
       <c r="A11" t="s">
@@ -1366,6 +1416,10 @@
       <c r="C11" t="s">
         <v>99</v>
       </c>
+      <c r="D11" t="str">
+        <f t="shared" si="2"/>
+        <v>'tBodyAccJerk-std()-X',</v>
+      </c>
     </row>
     <row r="12" spans="1:94">
       <c r="A12" t="s">
@@ -1378,6 +1432,10 @@
       <c r="C12" t="s">
         <v>100</v>
       </c>
+      <c r="D12" t="str">
+        <f t="shared" si="2"/>
+        <v>'tBodyAccJerk-std()-Y',</v>
+      </c>
     </row>
     <row r="13" spans="1:94">
       <c r="A13" t="s">
@@ -1390,6 +1448,10 @@
       <c r="C13" t="s">
         <v>101</v>
       </c>
+      <c r="D13" t="str">
+        <f t="shared" si="2"/>
+        <v>'tBodyAccJerk-std()-Z',</v>
+      </c>
     </row>
     <row r="14" spans="1:94">
       <c r="A14" t="s">
@@ -1402,6 +1464,10 @@
       <c r="C14" t="s">
         <v>102</v>
       </c>
+      <c r="D14" t="str">
+        <f t="shared" si="2"/>
+        <v>'tBodyGyro-std()-X',</v>
+      </c>
     </row>
     <row r="15" spans="1:94">
       <c r="A15" t="s">
@@ -1414,6 +1480,10 @@
       <c r="C15" t="s">
         <v>103</v>
       </c>
+      <c r="D15" t="str">
+        <f t="shared" si="2"/>
+        <v>'tBodyGyro-std()-Y',</v>
+      </c>
     </row>
     <row r="16" spans="1:94">
       <c r="A16" t="s">
@@ -1426,8 +1496,12 @@
       <c r="C16" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="str">
+        <f t="shared" si="2"/>
+        <v>'tBodyGyro-std()-Z',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1438,8 +1512,12 @@
       <c r="C17" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="str">
+        <f t="shared" si="2"/>
+        <v>'tBodyGyroJerk-std()-X',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1450,8 +1528,12 @@
       <c r="C18" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="str">
+        <f t="shared" si="2"/>
+        <v>'tBodyGyroJerk-std()-Y',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1462,8 +1544,12 @@
       <c r="C19" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" t="str">
+        <f t="shared" si="2"/>
+        <v>'tBodyGyroJerk-std()-Z',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1474,8 +1560,12 @@
       <c r="C20" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="str">
+        <f t="shared" si="2"/>
+        <v>'tBodyAccMag-std()',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1486,8 +1576,12 @@
       <c r="C21" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" t="str">
+        <f t="shared" si="2"/>
+        <v>'tGravityAccMag-std()',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1498,8 +1592,12 @@
       <c r="C22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" t="str">
+        <f t="shared" si="2"/>
+        <v>'tBodyAccJerkMag-std()',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1510,8 +1608,12 @@
       <c r="C23" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" t="str">
+        <f t="shared" si="2"/>
+        <v>'tBodyGyroMag-std()',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1522,8 +1624,12 @@
       <c r="C24" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" t="str">
+        <f t="shared" si="2"/>
+        <v>'tBodyGyroJerkMag-std()',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1534,8 +1640,12 @@
       <c r="C25" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" t="str">
+        <f t="shared" si="2"/>
+        <v>'fBodyAcc-std()-X',</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1546,8 +1656,12 @@
       <c r="C26" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" t="str">
+        <f t="shared" si="2"/>
+        <v>'fBodyAcc-std()-Y',</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1558,8 +1672,12 @@
       <c r="C27" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" t="str">
+        <f t="shared" si="2"/>
+        <v>'fBodyAcc-std()-Z',</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1570,8 +1688,12 @@
       <c r="C28" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" t="str">
+        <f t="shared" si="2"/>
+        <v>'fBodyAccJerk-std()-X',</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1582,8 +1704,12 @@
       <c r="C29" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" t="str">
+        <f t="shared" si="2"/>
+        <v>'fBodyAccJerk-std()-Y',</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1594,8 +1720,12 @@
       <c r="C30" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" t="str">
+        <f t="shared" si="2"/>
+        <v>'fBodyAccJerk-std()-Z',</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1606,8 +1736,12 @@
       <c r="C31" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" t="str">
+        <f t="shared" si="2"/>
+        <v>'fBodyGyro-std()-X',</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1618,8 +1752,12 @@
       <c r="C32" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" t="str">
+        <f t="shared" si="2"/>
+        <v>'fBodyGyro-std()-Y',</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1630,8 +1768,12 @@
       <c r="C33" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" t="str">
+        <f t="shared" si="2"/>
+        <v>'fBodyGyro-std()-Z',</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1642,8 +1784,12 @@
       <c r="C34" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" t="str">
+        <f t="shared" si="2"/>
+        <v>'fBodyAccMag-std()',</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1654,8 +1800,12 @@
       <c r="C35" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" t="str">
+        <f t="shared" si="2"/>
+        <v>'fBodyBodyAccJerkMag-std()',</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1666,8 +1816,12 @@
       <c r="C36" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" t="str">
+        <f t="shared" si="2"/>
+        <v>'fBodyBodyGyroMag-std()',</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1678,8 +1832,12 @@
       <c r="C37" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" t="str">
+        <f t="shared" si="2"/>
+        <v>'fBodyBodyGyroJerkMag-std()',</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1690,8 +1848,12 @@
       <c r="C38" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" t="str">
+        <f t="shared" si="2"/>
+        <v>'tBodyAcc-mean()-X',</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1702,8 +1864,12 @@
       <c r="C39" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" t="str">
+        <f t="shared" si="2"/>
+        <v>'tBodyAcc-mean()-Y',</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1714,8 +1880,12 @@
       <c r="C40" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" t="str">
+        <f t="shared" si="2"/>
+        <v>'tBodyAcc-mean()-Z',</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1726,8 +1896,12 @@
       <c r="C41" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" t="str">
+        <f t="shared" si="2"/>
+        <v>'tGravityAcc-mean()-X',</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1738,8 +1912,12 @@
       <c r="C42" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" t="str">
+        <f t="shared" si="2"/>
+        <v>'tGravityAcc-mean()-Y',</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1750,8 +1928,12 @@
       <c r="C43" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" t="str">
+        <f t="shared" si="2"/>
+        <v>'tGravityAcc-mean()-Z',</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1762,8 +1944,12 @@
       <c r="C44" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" t="str">
+        <f t="shared" si="2"/>
+        <v>'tBodyAccJerk-mean()-X',</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1774,8 +1960,12 @@
       <c r="C45" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" t="str">
+        <f t="shared" si="2"/>
+        <v>'tBodyAccJerk-mean()-Y',</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1786,8 +1976,12 @@
       <c r="C46" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" t="str">
+        <f t="shared" si="2"/>
+        <v>'tBodyAccJerk-mean()-Z',</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1798,8 +1992,12 @@
       <c r="C47" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" t="str">
+        <f t="shared" si="2"/>
+        <v>'tBodyGyro-mean()-X',</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1810,8 +2008,12 @@
       <c r="C48" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" t="str">
+        <f t="shared" si="2"/>
+        <v>'tBodyGyro-mean()-Y',</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1822,8 +2024,12 @@
       <c r="C49" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" t="str">
+        <f t="shared" si="2"/>
+        <v>'tBodyGyro-mean()-Z',</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1834,8 +2040,12 @@
       <c r="C50" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" t="str">
+        <f t="shared" si="2"/>
+        <v>'tBodyGyroJerk-mean()-X',</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1846,8 +2056,12 @@
       <c r="C51" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" t="str">
+        <f t="shared" si="2"/>
+        <v>'tBodyGyroJerk-mean()-Y',</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -1858,8 +2072,12 @@
       <c r="C52" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" t="str">
+        <f t="shared" si="2"/>
+        <v>'tBodyGyroJerk-mean()-Z',</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -1870,8 +2088,12 @@
       <c r="C53" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" t="str">
+        <f t="shared" si="2"/>
+        <v>'tBodyAccMag-mean()',</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -1882,8 +2104,12 @@
       <c r="C54" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" t="str">
+        <f t="shared" si="2"/>
+        <v>'tGravityAccMag-mean()',</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1894,8 +2120,12 @@
       <c r="C55" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" t="str">
+        <f t="shared" si="2"/>
+        <v>'tBodyAccJerkMag-mean()',</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -1906,8 +2136,12 @@
       <c r="C56" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" t="str">
+        <f t="shared" si="2"/>
+        <v>'tBodyGyroMag-mean()',</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -1918,8 +2152,12 @@
       <c r="C57" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" t="str">
+        <f t="shared" si="2"/>
+        <v>'tBodyGyroJerkMag-mean()',</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -1930,8 +2168,12 @@
       <c r="C58" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" t="str">
+        <f t="shared" si="2"/>
+        <v>'fBodyAcc-mean()-X',</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -1942,8 +2184,12 @@
       <c r="C59" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" t="str">
+        <f t="shared" si="2"/>
+        <v>'fBodyAcc-mean()-Y',</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -1954,8 +2200,12 @@
       <c r="C60" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" t="str">
+        <f t="shared" si="2"/>
+        <v>'fBodyAcc-mean()-Z',</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -1966,8 +2216,12 @@
       <c r="C61" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" t="str">
+        <f t="shared" si="2"/>
+        <v>'fBodyAcc-meanFreq()-X',</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -1978,8 +2232,12 @@
       <c r="C62" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" t="str">
+        <f t="shared" si="2"/>
+        <v>'fBodyAcc-meanFreq()-Y',</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -1990,8 +2248,12 @@
       <c r="C63" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" t="str">
+        <f t="shared" si="2"/>
+        <v>'fBodyAcc-meanFreq()-Z',</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -2002,8 +2264,12 @@
       <c r="C64" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" t="str">
+        <f t="shared" si="2"/>
+        <v>'fBodyAccJerk-mean()-X',</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -2014,8 +2280,12 @@
       <c r="C65" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" t="str">
+        <f t="shared" si="2"/>
+        <v>'fBodyAccJerk-mean()-Y',</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -2026,8 +2296,12 @@
       <c r="C66" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" t="str">
+        <f t="shared" si="2"/>
+        <v>'fBodyAccJerk-mean()-Z',</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -2038,8 +2312,12 @@
       <c r="C67" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D90" si="3">"'"&amp;A67&amp;"',"</f>
+        <v>'fBodyAccJerk-meanFreq()-X',</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -2050,8 +2328,12 @@
       <c r="C68" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" t="str">
+        <f t="shared" si="3"/>
+        <v>'fBodyAccJerk-meanFreq()-Y',</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -2062,257 +2344,345 @@
       <c r="C69" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" t="str">
+        <f t="shared" si="3"/>
+        <v>'fBodyAccJerk-meanFreq()-Z',</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>69</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" ref="B70:B90" si="2">"avg('"&amp;A70&amp;"'),"</f>
+        <f t="shared" ref="B70:B90" si="4">"avg('"&amp;A70&amp;"'),"</f>
         <v>avg('fBodyGyro-mean()-X'),</v>
       </c>
       <c r="C70" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" t="str">
+        <f t="shared" si="3"/>
+        <v>'fBodyGyro-mean()-X',</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>70</v>
       </c>
       <c r="B71" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>avg('fBodyGyro-mean()-Y'),</v>
       </c>
       <c r="C71" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" t="str">
+        <f t="shared" si="3"/>
+        <v>'fBodyGyro-mean()-Y',</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>71</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>avg('fBodyGyro-mean()-Z'),</v>
       </c>
       <c r="C72" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" t="str">
+        <f t="shared" si="3"/>
+        <v>'fBodyGyro-mean()-Z',</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>72</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>avg('fBodyGyro-meanFreq()-X'),</v>
       </c>
       <c r="C73" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" t="str">
+        <f t="shared" si="3"/>
+        <v>'fBodyGyro-meanFreq()-X',</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>73</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>avg('fBodyGyro-meanFreq()-Y'),</v>
       </c>
       <c r="C74" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74" t="str">
+        <f t="shared" si="3"/>
+        <v>'fBodyGyro-meanFreq()-Y',</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>74</v>
       </c>
       <c r="B75" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>avg('fBodyGyro-meanFreq()-Z'),</v>
       </c>
       <c r="C75" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75" t="str">
+        <f t="shared" si="3"/>
+        <v>'fBodyGyro-meanFreq()-Z',</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>75</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>avg('fBodyAccMag-mean()'),</v>
       </c>
       <c r="C76" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76" t="str">
+        <f t="shared" si="3"/>
+        <v>'fBodyAccMag-mean()',</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>76</v>
       </c>
       <c r="B77" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>avg('fBodyAccMag-meanFreq()'),</v>
       </c>
       <c r="C77" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" t="str">
+        <f t="shared" si="3"/>
+        <v>'fBodyAccMag-meanFreq()',</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>77</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>avg('fBodyBodyAccJerkMag-mean()'),</v>
       </c>
       <c r="C78" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78" t="str">
+        <f t="shared" si="3"/>
+        <v>'fBodyBodyAccJerkMag-mean()',</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>78</v>
       </c>
       <c r="B79" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>avg('fBodyBodyAccJerkMag-meanFreq()'),</v>
       </c>
       <c r="C79" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79" t="str">
+        <f t="shared" si="3"/>
+        <v>'fBodyBodyAccJerkMag-meanFreq()',</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>79</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>avg('fBodyBodyGyroMag-mean()'),</v>
       </c>
       <c r="C80" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80" t="str">
+        <f t="shared" si="3"/>
+        <v>'fBodyBodyGyroMag-mean()',</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>80</v>
       </c>
       <c r="B81" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>avg('fBodyBodyGyroMag-meanFreq()'),</v>
       </c>
       <c r="C81" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81" t="str">
+        <f t="shared" si="3"/>
+        <v>'fBodyBodyGyroMag-meanFreq()',</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>81</v>
       </c>
       <c r="B82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>avg('fBodyBodyGyroJerkMag-mean()'),</v>
       </c>
       <c r="C82" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82" t="str">
+        <f t="shared" si="3"/>
+        <v>'fBodyBodyGyroJerkMag-mean()',</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>82</v>
       </c>
       <c r="B83" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>avg('fBodyBodyGyroJerkMag-meanFreq()'),</v>
       </c>
       <c r="C83" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83" t="str">
+        <f t="shared" si="3"/>
+        <v>'fBodyBodyGyroJerkMag-meanFreq()',</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>83</v>
       </c>
       <c r="B84" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>avg('angle(tBodyAccMeangravity)'),</v>
       </c>
       <c r="C84" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84" t="str">
+        <f t="shared" si="3"/>
+        <v>'angle(tBodyAccMeangravity)',</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>84</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>avg('angle(tBodyAccJerkMean)gravityMean)'),</v>
       </c>
       <c r="C85" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85" t="str">
+        <f t="shared" si="3"/>
+        <v>'angle(tBodyAccJerkMean)gravityMean)',</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>85</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>avg('angle(tBodyGyroMeangravityMean)'),</v>
       </c>
       <c r="C86" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86" t="str">
+        <f t="shared" si="3"/>
+        <v>'angle(tBodyGyroMeangravityMean)',</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>86</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>avg('angle(tBodyGyroJerkMeangravityMean)'),</v>
       </c>
       <c r="C87" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87" t="str">
+        <f t="shared" si="3"/>
+        <v>'angle(tBodyGyroJerkMeangravityMean)',</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>87</v>
       </c>
       <c r="B88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>avg('angle(XgravityMean)'),</v>
       </c>
       <c r="C88" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88" t="str">
+        <f t="shared" si="3"/>
+        <v>'angle(XgravityMean)',</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>88</v>
       </c>
       <c r="B89" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>avg('angle(YgravityMean)'),</v>
       </c>
       <c r="C89" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89" t="str">
+        <f t="shared" si="3"/>
+        <v>'angle(YgravityMean)',</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>89</v>
       </c>
       <c r="B90" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>avg('angle(ZgravityMean)'),</v>
       </c>
       <c r="C90" t="s">
         <v>178</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="3"/>
+        <v>'angle(ZgravityMean)',</v>
       </c>
     </row>
   </sheetData>
